--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACDE92C-E5F8-4ABA-A7D3-FF702420A167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1085E3E-753D-4780-8E49-66CEE2B8A160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="801">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -2391,6 +2391,60 @@
   </si>
   <si>
     <t>* Third party vs new restuarant</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>intresting bug found</t>
+  </si>
+  <si>
+    <t>straight forward case for meeting invite app</t>
+  </si>
+  <si>
+    <t>corner cases for book my show</t>
+  </si>
+  <si>
+    <t>Payment deducted by ticket not booked - debugging skills</t>
+  </si>
+  <si>
+    <t>Chrome upgrade how will you cover</t>
+  </si>
+  <si>
+    <t>Second round will be totally QA round to come up with different scenarios for a use case</t>
+  </si>
+  <si>
+    <t>Framework explanation - If we say we know different frameworks, then thye would ask for the differences</t>
+  </si>
+  <si>
+    <t>Selenium questions - usually we can explain easily. example-They will ask us to tell the steps to automate a usecase(like zomato app), how different levels of user accessing it (like middleware, customer and hotel rep)</t>
+  </si>
+  <si>
+    <t>Mainly on xpath - They would ask you to share your screen and open a website and would give a scensrio to write xpath..</t>
+  </si>
+  <si>
+    <t>Programs - Mostly our daily coding challenge would help, also if we know different concepts to understand the problem they can clear that..</t>
+  </si>
+  <si>
+    <t>API - different authentication(oauth is main), basic requests</t>
+  </si>
+  <si>
+    <t>Take away</t>
+  </si>
+  <si>
+    <t>1) for interseting bug, tests how good we are thinking. say like what you found and how you reported to community</t>
+  </si>
+  <si>
+    <t>2) ask right set of questions like webex scenario ask like need to explain entire flow or just a section or feature</t>
+  </si>
+  <si>
+    <t>3) ask permission to think through the scenario. if scenario is difficult ask for tip or help</t>
+  </si>
+  <si>
+    <t>4) first tell +ve scn, performance, then go to -ve scn, edge case (finally if required ask for hint)</t>
+  </si>
+  <si>
+    <t>X-path version 2.0</t>
   </si>
 </sst>
 </file>
@@ -4390,20 +4444,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.109375" customWidth="1"/>
     <col min="3" max="3" width="61.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4413,8 +4466,11 @@
       <c r="C1" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,8 +4480,11 @@
       <c r="C2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4435,8 +4494,11 @@
       <c r="C3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4446,8 +4508,11 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4457,8 +4522,11 @@
       <c r="C5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4468,8 +4536,11 @@
       <c r="C6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4479,8 +4550,11 @@
       <c r="C7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4490,24 +4564,33 @@
       <c r="C8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>607</v>
       </c>
       <c r="C10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -4517,8 +4600,11 @@
       <c r="C11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -4528,8 +4614,11 @@
       <c r="C12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -4539,8 +4628,9 @@
       <c r="C13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -4550,8 +4640,11 @@
       <c r="C14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -4561,8 +4654,11 @@
       <c r="C15" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -4572,8 +4668,11 @@
       <c r="C16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -4583,8 +4682,11 @@
       <c r="C17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -4594,21 +4696,28 @@
       <c r="C18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4725,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +4733,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -4632,12 +4741,12 @@
         <v>732</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>208</v>
       </c>
@@ -4645,7 +4754,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -4653,7 +4762,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -4661,7 +4770,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -4669,7 +4778,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>212</v>
       </c>
@@ -4677,10 +4786,10 @@
         <v>738</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -6316,7 +6425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DB3B-9D0D-4526-B1CF-6EF0A840E8A6}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1085E3E-753D-4780-8E49-66CEE2B8A160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AE5A6-7B12-48A3-BE02-B9C75751DD6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
     <sheet name="FreshWorks" sheetId="1" r:id="rId2"/>
-    <sheet name="ChargeBee" sheetId="5" r:id="rId3"/>
-    <sheet name="Dunzo" sheetId="10" r:id="rId4"/>
-    <sheet name="FreeCharge" sheetId="8" r:id="rId5"/>
-    <sheet name="Swiggy" sheetId="15" r:id="rId6"/>
-    <sheet name="CaratLane" sheetId="13" r:id="rId7"/>
-    <sheet name="Toyota" sheetId="14" r:id="rId8"/>
-    <sheet name="Aut Anywhere" sheetId="17" r:id="rId9"/>
-    <sheet name="Zoho" sheetId="7" r:id="rId10"/>
-    <sheet name="Logitech" sheetId="6" r:id="rId11"/>
-    <sheet name="Global Logic" sheetId="9" r:id="rId12"/>
-    <sheet name="CITI" sheetId="2" r:id="rId13"/>
-    <sheet name="Global English" sheetId="3" r:id="rId14"/>
-    <sheet name="Wipro" sheetId="4" r:id="rId15"/>
-    <sheet name="Logica Infotech" sheetId="12" r:id="rId16"/>
-    <sheet name="DeepIntent" sheetId="11" r:id="rId17"/>
-    <sheet name="Gainsight" sheetId="18" r:id="rId18"/>
+    <sheet name="ThoughtWorks" sheetId="19" r:id="rId3"/>
+    <sheet name="ChargeBee" sheetId="5" r:id="rId4"/>
+    <sheet name="Dunzo" sheetId="10" r:id="rId5"/>
+    <sheet name="FreeCharge" sheetId="8" r:id="rId6"/>
+    <sheet name="Swiggy" sheetId="15" r:id="rId7"/>
+    <sheet name="CaratLane" sheetId="13" r:id="rId8"/>
+    <sheet name="Toyota" sheetId="14" r:id="rId9"/>
+    <sheet name="Aut Anywhere" sheetId="17" r:id="rId10"/>
+    <sheet name="Zoho" sheetId="7" r:id="rId11"/>
+    <sheet name="Logitech" sheetId="6" r:id="rId12"/>
+    <sheet name="Global Logic" sheetId="9" r:id="rId13"/>
+    <sheet name="CITI" sheetId="2" r:id="rId14"/>
+    <sheet name="Global English" sheetId="3" r:id="rId15"/>
+    <sheet name="Wipro" sheetId="4" r:id="rId16"/>
+    <sheet name="Logica Infotech" sheetId="12" r:id="rId17"/>
+    <sheet name="DeepIntent" sheetId="11" r:id="rId18"/>
+    <sheet name="Gainsight" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="998">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -2445,6 +2446,617 @@
   </si>
   <si>
     <t>X-path version 2.0</t>
+  </si>
+  <si>
+    <t>Test case enumeration for Coupon-code Redeem text box</t>
+  </si>
+  <si>
+    <t>Test strategy for an application architecture</t>
+  </si>
+  <si>
+    <t>Explain your current project</t>
+  </si>
+  <si>
+    <t>Logical:</t>
+  </si>
+  <si>
+    <t>1. There are 25 horses among which you need to find out the fastest 3 horses. You can conduct race among at most 5 to find out their relative speed. At no point you can find out the actual speed of the horse in a race. Find out how many races are required to get the top 3 horses.</t>
+  </si>
+  <si>
+    <t>2. There is a train service between chennai to coimbatore. Each hour one train will be starting from Chennai to Coimbatore for 24/7. The same service from Coimbatore to Chennai. Travel time between chennai &amp; coimbatore is 8 Hrs. You are starting at 6 AM from chennai. How many trains will you seeing in opposite before you reach Coimbatore.</t>
+  </si>
+  <si>
+    <t>1. Find the maximum sub-array which contains the maximum product.</t>
+  </si>
+  <si>
+    <t>input = {12,23,34,-23,0,34}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. We have an array of hashes, so how to check my array of hashes contains a hash with a given key-value pair? </t>
+  </si>
+  <si>
+    <t>[{"question"=&gt;"0a2a3452", "answer"=&gt;"bull"}, {"question"=&gt;"58deacf9", "answer"=&gt;"bullafolo"}, {"question"=&gt;"32c53e5f", "answer"=&gt;"curosit"}, {"question"=&gt;"b5546bcf", "answer"=&gt;""}, {"question"=&gt;"0f0b314", "answer"=&gt;""}]</t>
+  </si>
+  <si>
+    <t>Check if "question"=&gt;"b5546bcf" (along with value) is present in the given array of hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium: </t>
+  </si>
+  <si>
+    <t>1. Exception that you have faced?</t>
+  </si>
+  <si>
+    <t>2. What is StaleElementReferenceException?</t>
+  </si>
+  <si>
+    <t>3. When will you get StaleElementReferenceException?</t>
+  </si>
+  <si>
+    <t>4. Is that possible to get StaleElementReferenceException while interacting an element inside the frame?</t>
+  </si>
+  <si>
+    <t>5. How would you add the value in map using JSON parser?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. There is a Web Chat appication which works with default microphone. Write a selenium code for the below operations in webchat application. </t>
+  </si>
+  <si>
+    <t>Assume two users. User1 &amp; User2.</t>
+  </si>
+  <si>
+    <t>a) Verify User1 sends the message to User2</t>
+  </si>
+  <si>
+    <t>b) Verify the message received by User2</t>
+  </si>
+  <si>
+    <t>c) Verify User2 sends the acknowledgement through chat to User1</t>
+  </si>
+  <si>
+    <t>d) make sure that user2 receives that message</t>
+  </si>
+  <si>
+    <t>7. Which framework you have worked on? Difference between BDD and Hybrid?</t>
+  </si>
+  <si>
+    <t>Note: Clean code with TestNG annotations.</t>
+  </si>
+  <si>
+    <t>1. HTTP Methods?</t>
+  </si>
+  <si>
+    <t>2. Diff b/e PUT,POST and PATCH?</t>
+  </si>
+  <si>
+    <t>3. What would you validate in API? Request, Response, etc,.</t>
+  </si>
+  <si>
+    <t>4. Diff b/w Authorization &amp; Authorization</t>
+  </si>
+  <si>
+    <t>Types of frame work used</t>
+  </si>
+  <si>
+    <t>2. Types of constructors</t>
+  </si>
+  <si>
+    <t>3. Method Overloading</t>
+  </si>
+  <si>
+    <t>4. Method Overriding</t>
+  </si>
+  <si>
+    <t>5. if two interfaces have same methods, which method will be implemented in the implementing class</t>
+  </si>
+  <si>
+    <t>6. if only the order of the arguments change in two methods, is that overloading</t>
+  </si>
+  <si>
+    <t>7. 3 ways/keywords to prevent a method from overloading</t>
+  </si>
+  <si>
+    <t>8. What is interface</t>
+  </si>
+  <si>
+    <t>9. In java can a class inherit from more than one class</t>
+  </si>
+  <si>
+    <t>10. Do we have any limit for multi level inheritance in Java</t>
+  </si>
+  <si>
+    <t>11. what is the use of static keyword? why we need to access methods/variables without object in java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. How to access static member of a class using object </t>
+  </si>
+  <si>
+    <t>*by using a public method with object as argument</t>
+  </si>
+  <si>
+    <t>class A</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>static int v;</t>
+  </si>
+  <si>
+    <t>public int getv(A a)</t>
+  </si>
+  <si>
+    <t>return a.v;</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>A obj =new A();</t>
+  </si>
+  <si>
+    <t>getv(obj);</t>
+  </si>
+  <si>
+    <t>13.what are the collections u have used</t>
+  </si>
+  <si>
+    <t>14. when to use arraylist and when to use linked list</t>
+  </si>
+  <si>
+    <t>15. Time Complexity for inserting in LinkedList</t>
+  </si>
+  <si>
+    <t>16. Sets used in framework</t>
+  </si>
+  <si>
+    <t>17. Code to remove duplicates from a String,</t>
+  </si>
+  <si>
+    <t>use the same method to remove duplicates from each word of a string(seprated by space)</t>
+  </si>
+  <si>
+    <t>18.When to Use Map</t>
+  </si>
+  <si>
+    <t>19. Intial capacity of ArrayList</t>
+  </si>
+  <si>
+    <t>20.What is the need for collections, compared to array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. can we store elements of different data types in collection </t>
+  </si>
+  <si>
+    <t>1. How Selenium code , iteract with drivers</t>
+  </si>
+  <si>
+    <t>2. how drivers interact with browsers</t>
+  </si>
+  <si>
+    <t>3. Who is provinding drivers for each browsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Code for(with out locators) for any login </t>
+  </si>
+  <si>
+    <t>5. why we maximize window</t>
+  </si>
+  <si>
+    <t>6. Can we run headon in containers (running from jenkins)</t>
+  </si>
+  <si>
+    <t>7. how implicit wait wrks</t>
+  </si>
+  <si>
+    <t>8. how explicit wait works</t>
+  </si>
+  <si>
+    <t>9. how to change the pooling time in webdriver wait</t>
+  </si>
+  <si>
+    <t>10.how to handle a alert , which can appear after a time( the time to appear changes )</t>
+  </si>
+  <si>
+    <t>11.Exceptions handled</t>
+  </si>
+  <si>
+    <t>12.What is stale element exception</t>
+  </si>
+  <si>
+    <t>13.How to handle stale element exception</t>
+  </si>
+  <si>
+    <t>14. features of testNG</t>
+  </si>
+  <si>
+    <t>15. How to run a test case , multiple iteration</t>
+  </si>
+  <si>
+    <t>1. with same data</t>
+  </si>
+  <si>
+    <t>2. with different data</t>
+  </si>
+  <si>
+    <t>16. How to run testcases in less time(How to do parallel execution)</t>
+  </si>
+  <si>
+    <t>17.How to rerun failed cases using testNG</t>
+  </si>
+  <si>
+    <t>18.How to make one method not to run if another particular method fails</t>
+  </si>
+  <si>
+    <t>19. Dependens on , used in your framwork</t>
+  </si>
+  <si>
+    <t>20.How to make one set of methods not to run if another particular set of method fails</t>
+  </si>
+  <si>
+    <t>21.If a test is run multiple times uisng invocation count, if one iteration failed ll the next iterations be continued?</t>
+  </si>
+  <si>
+    <t>22.What is headless browser</t>
+  </si>
+  <si>
+    <t>1. Exceptions faced</t>
+  </si>
+  <si>
+    <t>2. What are the possible request in a mail box application</t>
+  </si>
+  <si>
+    <t>3. What is the difference between getting  single mail and list of mail</t>
+  </si>
+  <si>
+    <t>4. How can we get mails after the max limit in configured in a response</t>
+  </si>
+  <si>
+    <t>5. why query parameter is needed</t>
+  </si>
+  <si>
+    <t>6. How to attach files in request-what is th content type of request and response</t>
+  </si>
+  <si>
+    <t>7. if a email ID of invalid format is passed in request what error code will get? (2 possible error codes)</t>
+  </si>
+  <si>
+    <t>8. In the above case if it is 500 error code, how will you debug</t>
+  </si>
+  <si>
+    <t>9. when will we get 403 error code</t>
+  </si>
+  <si>
+    <t>10. difference between 401 and 403</t>
+  </si>
+  <si>
+    <t>11. in the above mail api when we try to get a mail which is not available, what will be the code and message?</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>1. Where/how CI/CD is used?</t>
+  </si>
+  <si>
+    <t>2. How trigger jobs periodically?</t>
+  </si>
+  <si>
+    <t>3.How to achieve paralle execution in master slave archietecture using TestNG</t>
+  </si>
+  <si>
+    <t>4. Can same testng XML for used in parallel test execution across differnt slaves? how?</t>
+  </si>
+  <si>
+    <t>5.Do u write the Groovy pipeline code</t>
+  </si>
+  <si>
+    <t>1. Tell About your self</t>
+  </si>
+  <si>
+    <t>2. Role in Test Cycle</t>
+  </si>
+  <si>
+    <t>3. What are the follow up setps when customer reports a bug in production</t>
+  </si>
+  <si>
+    <t>4. What will you do if the bug is not reproducible in test environment</t>
+  </si>
+  <si>
+    <t>5. Who writes test case in your team</t>
+  </si>
+  <si>
+    <t>6. How you/team test not automated testcases? how Automation coverage is maintained/tracked?</t>
+  </si>
+  <si>
+    <t>7. Who will select /prioratize the test cases that needs to be automated?</t>
+  </si>
+  <si>
+    <t>8. in Grooming will you be providing your suggesstions ?</t>
+  </si>
+  <si>
+    <t>9. Test cases for Search API</t>
+  </si>
+  <si>
+    <t>10. test cases for ticket booking app and google calender integration</t>
+  </si>
+  <si>
+    <t>11.if add to cart button in flipkart is not working, how will you debug</t>
+  </si>
+  <si>
+    <t>12. In Gmail attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> any number of files can be attached, but the size limit for single file is 10 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and limit for cumulative size is 50 Mb</t>
+  </si>
+  <si>
+    <t>write test scenarios</t>
+  </si>
+  <si>
+    <t>13. Defect Cycle</t>
+  </si>
+  <si>
+    <t>14. Who will make decision to defer a defect</t>
+  </si>
+  <si>
+    <t>15. Severity/Priority</t>
+  </si>
+  <si>
+    <t>16. Who decides severity /priority</t>
+  </si>
+  <si>
+    <t>1)Testcase enumeration</t>
+  </si>
+  <si>
+    <t>Scenario: App -&gt; PArking System</t>
+  </si>
+  <si>
+    <t>UI:</t>
+  </si>
+  <si>
+    <t>1. Show the available slots --&gt; Assign the slots Randomly</t>
+  </si>
+  <si>
+    <t>2. Once the vechicle swipes --&gt; show the availability if the slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: </t>
+  </si>
+  <si>
+    <t>POST --&gt; Submitting --&gt; Slot Num</t>
+  </si>
+  <si>
+    <t>GET --&gt; Show the available no.of slots</t>
+  </si>
+  <si>
+    <t>comeup with test plan,manual cases and automation cases(expected to follow test pyramind)</t>
+  </si>
+  <si>
+    <t>2)different testing techniques used for testing a textbox - allows lowercase/uppercase of min 6 chars and max 12 chars</t>
+  </si>
+  <si>
+    <t>3) What is test strategy &amp; test plan, testing life cycle</t>
+  </si>
+  <si>
+    <t>4)what is test pyramid - explain</t>
+  </si>
+  <si>
+    <t>5)Agile - full process</t>
+  </si>
+  <si>
+    <t>Design &amp; implement simple UI framework(asked to code), API framework- only explanation</t>
+  </si>
+  <si>
+    <t>Program : Input - Thoughtworks, replace 't' with uppercase Testcase w/o inbulit methods</t>
+  </si>
+  <si>
+    <t>Program : Input - Thoughtworks, remove 't' w/o inbulit methods</t>
+  </si>
+  <si>
+    <t>why main method is static?</t>
+  </si>
+  <si>
+    <t>what is the use of static method?</t>
+  </si>
+  <si>
+    <t>why do we create objects for classes?</t>
+  </si>
+  <si>
+    <t>Real time project methods where static method is used</t>
+  </si>
+  <si>
+    <t>Early binding and dynamic binding</t>
+  </si>
+  <si>
+    <t>Constructor chaining</t>
+  </si>
+  <si>
+    <t>Why String is immutable?</t>
+  </si>
+  <si>
+    <t>which of the above methods will be executed?</t>
+  </si>
+  <si>
+    <t>why child class object cannot be used for accessing parent class methods?</t>
+  </si>
+  <si>
+    <t>what is the difference between Interface and Abstract class?</t>
+  </si>
+  <si>
+    <t>when we use Interface and when Abstract class?</t>
+  </si>
+  <si>
+    <t>why are we using Interface to create object and access the implementing the class methods?</t>
+  </si>
+  <si>
+    <t>example: WebDriver driver = new ChromeDriver(); instead of ChromeDriver driver = new ChromeDriver();</t>
+  </si>
+  <si>
+    <t>When do we use ArrayList and LinkedList?</t>
+  </si>
+  <si>
+    <t>O notations for the respective methods</t>
+  </si>
+  <si>
+    <t>HashSet implementations</t>
+  </si>
+  <si>
+    <t>can we store duplicates in Set?</t>
+  </si>
+  <si>
+    <t>how to overcome the challenge of storing duplicate as object in Set?</t>
+  </si>
+  <si>
+    <t>Validate paranthesis</t>
+  </si>
+  <si>
+    <t>Selenium architecture</t>
+  </si>
+  <si>
+    <t>How to overcome Stale Element exception?</t>
+  </si>
+  <si>
+    <t>How JavaScript executor works?</t>
+  </si>
+  <si>
+    <t>Disadvantage of JavaScript executor</t>
+  </si>
+  <si>
+    <t>Assuming a email api -  write possible API methods</t>
+  </si>
+  <si>
+    <t>If need to fetch all the emails what method call should I use?</t>
+  </si>
+  <si>
+    <t>If I give a search keyword that is not present, what error code will I get?</t>
+  </si>
+  <si>
+    <t>Program question</t>
+  </si>
+  <si>
+    <t>Add contact from UI</t>
+  </si>
+  <si>
+    <t>Add contact via file upload</t>
+  </si>
+  <si>
+    <t>Edit contact</t>
+  </si>
+  <si>
+    <t>Delete contact</t>
+  </si>
+  <si>
+    <t>Delete after bulk select</t>
+  </si>
+  <si>
+    <t>Possible actions on Add contact--&gt; CRUD operations</t>
+  </si>
+  <si>
+    <t>How to test those?</t>
+  </si>
+  <si>
+    <t>2. Steps for Defect logged by customer in prod</t>
+  </si>
+  <si>
+    <t>3. How defects by customer and QA team is categorized/differentiated</t>
+  </si>
+  <si>
+    <t>4. Defect life cycle</t>
+  </si>
+  <si>
+    <t>5. Selenium script for enter email and click button</t>
+  </si>
+  <si>
+    <t>6. waits (explicit wait condition to wait till element is present)</t>
+  </si>
+  <si>
+    <t>7. How to pass test Data to Automation Scripts</t>
+  </si>
+  <si>
+    <t>8.What type of frame work used for UI testing</t>
+  </si>
+  <si>
+    <t>9. Explain your current application and test approach</t>
+  </si>
+  <si>
+    <t>10. Challenges faced during test and automation of your application</t>
+  </si>
+  <si>
+    <t>11. Word Break problem</t>
+  </si>
+  <si>
+    <t>1. Explain Test Planning , approach and Scenarios(high level) for a contacts application</t>
+  </si>
+  <si>
+    <t>1. Explain about yourself and roles played so far</t>
+  </si>
+  <si>
+    <t>2. Explain your career growth/transition? and challenges in that.</t>
+  </si>
+  <si>
+    <t>3. Where u see youself in 2 /5 years?</t>
+  </si>
+  <si>
+    <t>4. Have you helped and guided your team?</t>
+  </si>
+  <si>
+    <t>5. When do you came to know about Freshworks?</t>
+  </si>
+  <si>
+    <t>6. Do you know about products of freshworks?</t>
+  </si>
+  <si>
+    <t>7. Any Questions about freshworks</t>
+  </si>
+  <si>
+    <t>What is JRE, JVM and JDK? When you will use these?</t>
+  </si>
+  <si>
+    <t>What is the diff between encryption and hashing? Where its used in your day to day activity (except Java &amp; Selenium)?</t>
+  </si>
+  <si>
+    <t>What is Dockers &amp; containers?</t>
+  </si>
+  <si>
+    <t>Why main method is static?</t>
+  </si>
+  <si>
+    <t>What is immutable and why string is immutable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How will you achieve the parallel execution? </t>
+  </si>
+  <si>
+    <t>Thread rising</t>
+  </si>
+  <si>
+    <t>Find the intersection for k number of arrays.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Debugging Qn:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navigation from one page to another page slow for a particular application. How will you debug this?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2985,6 +3597,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F27406-B35D-4E7F-BF58-232C7DFAD1A3}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CC4AA9-F201-4CF9-8C84-A706D3A63D28}">
   <dimension ref="A1:A55"/>
   <sheetViews>
@@ -3217,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2778574C-63CC-463D-A68D-E4F793A5F3C8}">
   <dimension ref="A1:A56"/>
   <sheetViews>
@@ -3489,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7D59E-A1D8-4245-B8E3-CFBBD78B80F5}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3592,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9D4652-F80D-4003-93B0-0F8769751DA2}">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -3793,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063943D-3BF7-4005-9BA4-776A95F07167}">
   <dimension ref="A2:A23"/>
   <sheetViews>
@@ -3914,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31098C9C-93FE-485F-9190-A0148D218930}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -4232,7 +4891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C33F1-A1FB-4B2B-8414-A0665D70F3A5}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -4298,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BA8A9-7826-4D89-BEBA-4976E18552D1}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -4352,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CEDD9D-03AE-426B-A47D-1BC31D89A7C9}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -4444,679 +5103,1680 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B51" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="B54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B56" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B60" s="2"/>
+      <c r="D60" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D61" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="D62" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D63" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D64" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D65" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D66" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D67" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D68" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="D70" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>722</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -5126,6 +6786,132 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD3467-2B99-44E2-94DD-B35AB2451446}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="69.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F02FB25-3DFF-41E7-92B5-834D40ACAD7B}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -5814,7 +7600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A1B05-956D-4043-80BD-1DED8F2F6975}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -6064,7 +7850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB85AB0-402B-4E08-B2B3-647BD366FFAA}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -6421,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DB3B-9D0D-4526-B1CF-6EF0A840E8A6}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -6764,7 +8550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EED80-F386-4D8D-8E22-BBDE76B2048C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -6900,7 +8686,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>624</v>
       </c>
@@ -6910,7 +8696,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>626</v>
       </c>
@@ -6940,7 +8726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1F9D0-1F41-4D46-A88C-38D4B372000A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -7114,51 +8900,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F27406-B35D-4E7F-BF58-232C7DFAD1A3}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AE5A6-7B12-48A3-BE02-B9C75751DD6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB8336-4311-4AC2-B90B-689C5EA6B162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
@@ -19,19 +19,21 @@
     <sheet name="ChargeBee" sheetId="5" r:id="rId4"/>
     <sheet name="Dunzo" sheetId="10" r:id="rId5"/>
     <sheet name="FreeCharge" sheetId="8" r:id="rId6"/>
-    <sheet name="Swiggy" sheetId="15" r:id="rId7"/>
-    <sheet name="CaratLane" sheetId="13" r:id="rId8"/>
-    <sheet name="Toyota" sheetId="14" r:id="rId9"/>
-    <sheet name="Aut Anywhere" sheetId="17" r:id="rId10"/>
-    <sheet name="Zoho" sheetId="7" r:id="rId11"/>
-    <sheet name="Logitech" sheetId="6" r:id="rId12"/>
-    <sheet name="Global Logic" sheetId="9" r:id="rId13"/>
-    <sheet name="CITI" sheetId="2" r:id="rId14"/>
-    <sheet name="Global English" sheetId="3" r:id="rId15"/>
-    <sheet name="Wipro" sheetId="4" r:id="rId16"/>
-    <sheet name="Logica Infotech" sheetId="12" r:id="rId17"/>
-    <sheet name="DeepIntent" sheetId="11" r:id="rId18"/>
-    <sheet name="Gainsight" sheetId="18" r:id="rId19"/>
+    <sheet name="MakeMyTrip" sheetId="20" r:id="rId7"/>
+    <sheet name="Phonepe" sheetId="21" r:id="rId8"/>
+    <sheet name="Swiggy" sheetId="15" r:id="rId9"/>
+    <sheet name="CaratLane" sheetId="13" r:id="rId10"/>
+    <sheet name="Toyota" sheetId="14" r:id="rId11"/>
+    <sheet name="Aut Anywhere" sheetId="17" r:id="rId12"/>
+    <sheet name="Zoho" sheetId="7" r:id="rId13"/>
+    <sheet name="Logitech" sheetId="6" r:id="rId14"/>
+    <sheet name="Global Logic" sheetId="9" r:id="rId15"/>
+    <sheet name="CITI" sheetId="2" r:id="rId16"/>
+    <sheet name="Global English" sheetId="3" r:id="rId17"/>
+    <sheet name="Wipro" sheetId="4" r:id="rId18"/>
+    <sheet name="Logica Infotech" sheetId="12" r:id="rId19"/>
+    <sheet name="DeepIntent" sheetId="11" r:id="rId20"/>
+    <sheet name="Gainsight" sheetId="18" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1083">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -3057,6 +3059,261 @@
       </rPr>
       <t xml:space="preserve"> Navigation from one page to another page slow for a particular application. How will you debug this?</t>
     </r>
+  </si>
+  <si>
+    <t>tell about the framework</t>
+  </si>
+  <si>
+    <t>Java - https://leetcode.com/problems/excel-sheet-column-title/</t>
+  </si>
+  <si>
+    <t>Selenium - find xpath for 'chrome://downloads/' Downloads entity</t>
+  </si>
+  <si>
+    <t>write a generic function which fills a form with dynamic data for the given number of fields</t>
+  </si>
+  <si>
+    <t>eg: we have a form, which has 100 fields, but i need to run only 20 fields. function should be capable to doing such</t>
+  </si>
+  <si>
+    <t>Java - https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>Put vs patch</t>
+  </si>
+  <si>
+    <t>Authentication vs authorization</t>
+  </si>
+  <si>
+    <t>what are the factor will check when making a post call</t>
+  </si>
+  <si>
+    <t>ci/cd how to build pipeline?</t>
+  </si>
+  <si>
+    <t>1) Tell me about youself and your roles and responsibilities</t>
+  </si>
+  <si>
+    <t>2) Best Defect you reported</t>
+  </si>
+  <si>
+    <t>3) How will you create a report from rally(Things we consisder, Weightage)</t>
+  </si>
+  <si>
+    <t>4) Global app with all type of booking with google calendar integration</t>
+  </si>
+  <si>
+    <t>5) Flipkart add to cart is not working(How will you debug it)</t>
+  </si>
+  <si>
+    <t>6) What will you do if a customer call for the same issue?</t>
+  </si>
+  <si>
+    <t>7) 500 Test case(Regression) that runs 8 hrs, how will reduce timing on this for daily run in jenkins pipeline.</t>
+  </si>
+  <si>
+    <t>8) What is API</t>
+  </si>
+  <si>
+    <t>9) Error code in api</t>
+  </si>
+  <si>
+    <t>10) 40 QA are there, how will be schedule task among them.</t>
+  </si>
+  <si>
+    <t>Roles and responsibility</t>
+  </si>
+  <si>
+    <t>Agile process</t>
+  </si>
+  <si>
+    <t>What is your contribution in backlog grooming</t>
+  </si>
+  <si>
+    <t>Given scenario - login page. No details in user story - what questions will you ask your PO?</t>
+  </si>
+  <si>
+    <t>What are the frameworks you implemented/worked on? - Explained framework - questions were asked in the framework - why this, why not this?</t>
+  </si>
+  <si>
+    <t>If I want you to create an API/UI framework - which tools will you use? - Framework discovery</t>
+  </si>
+  <si>
+    <t>Questions related to framework discovery were asked</t>
+  </si>
+  <si>
+    <t>Have you configured CI/CD in Jenkins?</t>
+  </si>
+  <si>
+    <t>Assume we have master and agents. I want to build my dev code and host it using one agent and complete my automation in another machine. How will you do it?</t>
+  </si>
+  <si>
+    <t>Given input string- abcd12cb.reverse the string</t>
+  </si>
+  <si>
+    <t>given 8 marbles - 7 marbles are of equal weight, 1 has more weight</t>
+  </si>
+  <si>
+    <t>you will be provided with a weighing scale. In how many chances will you find the marble with a higher weight</t>
+  </si>
+  <si>
+    <t>There are 3 baskets - one contains apple, one contains orange, one contains both apple/orange (max of 50 fruits)</t>
+  </si>
+  <si>
+    <t>The labels are marked incorrectly. You can pick one fruit at a time. How many chances will you take to correct the labels in all 3 baskets?</t>
+  </si>
+  <si>
+    <t>A frog is stuck in a well. The height of the well is 30m. The frog can jump 3m in the daytime and slides 2m at night. In how many days can the frog come out ot well?</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How will you capitalize the first letter of each word of a String </t>
+  </si>
+  <si>
+    <t>String str ="this is string sentence"</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>String in file - FLI12345,BU2345,CA134,CA5678,CA57890,FLI6785,CA543,FLI234,FLI6789,FLI999,CA87655,CA23456,FLI3728,FLI9830,FLI9393,FLI27364,FLI2626,FLI823828</t>
+  </si>
+  <si>
+    <t>BUS=1, FLIGHT=11, CAR=6</t>
+  </si>
+  <si>
+    <t>Find max value.i.e FLIGHT which has 11 entries</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q)WAP TO REMOVE CHARATERS OTHER THAN CIRCLE BRACKETS (),CURLY BRACES{} AND SQUARE BRACKETS[]IN A MATEMATICAL EQUATION .</t>
+  </si>
+  <si>
+    <t>String s : x= [(a*b)+ {(c+d)+ (e/f)}]</t>
+  </si>
+  <si>
+    <t>output : [()[()()}]</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>What is output for below program:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public class A { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (true) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            break; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>1. Overloading and where it is used in your framework</t>
+  </si>
+  <si>
+    <t>2. Difference between StringBuilder, StringBuffer and String</t>
+  </si>
+  <si>
+    <t>3. Difference between Abstarct Class and Interface</t>
+  </si>
+  <si>
+    <t>1. Given a webpage, find Number of links in that page</t>
+  </si>
+  <si>
+    <t>2. When a button is click, webpage gives a dialog box. It may be alert or a window. How</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   to handle it?</t>
+  </si>
+  <si>
+    <t>3. what will you do if a browser action opens 5 windows at a time and you want to go to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   a particular window.</t>
+  </si>
+  <si>
+    <t>1. Second highest convenience fee from a table 'flight' .</t>
+  </si>
+  <si>
+    <t>Ans: select MAX(convenience_fee) from flight where convenience_fee &lt; (select MAX(convenience_fee) from flight)</t>
+  </si>
+  <si>
+    <t>2. select Count(1) - What is the output?</t>
+  </si>
+  <si>
+    <t>2. select Count(*) - What is the output?</t>
+  </si>
+  <si>
+    <t>1. Roles and Responsibilities</t>
+  </si>
+  <si>
+    <t>2. Debug: your application has initiated a refund. But customer complain that refund didnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   come. But your application is saying refund is sucessful.</t>
+  </si>
+  <si>
+    <t>3. Debug: Application was working fine in QA. When build was deployed on stage/pre-prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   UI is blank. What wil be reasons?</t>
+  </si>
+  <si>
+    <t>4. Java Program: Two Sum</t>
+  </si>
+  <si>
+    <t>5. You want to generate a List of Booking IDs which should not repeat same number. How to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   do it? you dont have access to DB and APIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: Group anagrams and non anagrams should be moved to right </t>
+  </si>
+  <si>
+    <t>Question 2: Decode the following and write code for the same</t>
+  </si>
+  <si>
+    <t>Input: "today is awesome"</t>
+  </si>
+  <si>
+    <t>intermediate: "yadot si emosewa"</t>
+  </si>
+  <si>
+    <t>output: "awesome is today"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Remove All Adjacent Duplicates In String - </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/</t>
+  </si>
+  <si>
+    <t>2) &amp; 3) Buy and sell stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FB7748-6424-4BA7-AE80-F8081533A1F5}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3597,44 +3854,349 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F27406-B35D-4E7F-BF58-232C7DFAD1A3}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EED80-F386-4D8D-8E22-BBDE76B2048C}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.33203125" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1F9D0-1F41-4D46-A88C-38D4B372000A}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.5546875" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>676</v>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +4205,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F27406-B35D-4E7F-BF58-232C7DFAD1A3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CC4AA9-F201-4CF9-8C84-A706D3A63D28}">
   <dimension ref="A1:A55"/>
   <sheetViews>
@@ -3876,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2778574C-63CC-463D-A68D-E4F793A5F3C8}">
   <dimension ref="A1:A56"/>
   <sheetViews>
@@ -4148,7 +4845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7D59E-A1D8-4245-B8E3-CFBBD78B80F5}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4251,7 +4948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9D4652-F80D-4003-93B0-0F8769751DA2}">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -4452,7 +5149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063943D-3BF7-4005-9BA4-776A95F07167}">
   <dimension ref="A2:A23"/>
   <sheetViews>
@@ -4573,7 +5270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31098C9C-93FE-485F-9190-A0148D218930}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -4891,7 +5588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C33F1-A1FB-4B2B-8414-A0665D70F3A5}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -4957,7 +5654,1755 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
+  <dimension ref="A1:E239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BA8A9-7826-4D89-BEBA-4976E18552D1}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5011,7 +7456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CEDD9D-03AE-426B-A47D-1BC31D89A7C9}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -5093,1690 +7538,6 @@
     <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>751</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
-  <dimension ref="A1:E239"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.5546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="D60" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -8208,6 +8969,365 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA126997-88C6-42B8-AA54-B9F61EAF6019}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE95AB5-C1FC-491D-8B54-702A2219AAD8}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DB3B-9D0D-4526-B1CF-6EF0A840E8A6}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -8548,356 +9668,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EED80-F386-4D8D-8E22-BBDE76B2048C}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="70.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1F9D0-1F41-4D46-A88C-38D4B372000A}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="65.5546875" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>582</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>583</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>584</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB8336-4311-4AC2-B90B-689C5EA6B162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9EFCBF-2C7C-4C5C-908D-E625244CDB0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
@@ -34,6 +34,8 @@
     <sheet name="Logica Infotech" sheetId="12" r:id="rId19"/>
     <sheet name="DeepIntent" sheetId="11" r:id="rId20"/>
     <sheet name="Gainsight" sheetId="18" r:id="rId21"/>
+    <sheet name="Optum" sheetId="22" r:id="rId22"/>
+    <sheet name="Others" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1313">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -3314,6 +3316,696 @@
   </si>
   <si>
     <t xml:space="preserve">   https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
+    <t>1. Tell about urself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Roles and responsibilities </t>
+  </si>
+  <si>
+    <t>3. Framework, TestNG vs Cucumber difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Reverse the words of the string problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Check the Linked list is palindrome or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Framework - explanation in detail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. We have an Amazon kind of site , where you have to search for products, which will return list of results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   and for the searching product there will be lots of results, and lazy loading as well(at a time only a list of products will get displayed &amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   and we have to scrolldown to get the next set of results. FInd the total count of products &amp; We dont have any attributes in for the search results to identify it </t>
+  </si>
+  <si>
+    <t>5. "AJKHDKJHKJH98789787987mnb97987mnmk" - get the numbers only from string and return the sum of the numbers of output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. We have 3 services , like Excel data provider, XML data provider &amp; CSV data provider ---&gt; SSIS ETl job --&gt; Data Base , derive all the possible test cases </t>
+  </si>
+  <si>
+    <t>7. update supplier table for country , whose product id =3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update Suppliers </t>
+  </si>
+  <si>
+    <t>set Country = 'France'</t>
+  </si>
+  <si>
+    <t>where SupplierID in(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select SupplierID from Product </t>
+  </si>
+  <si>
+    <t>where ProductID in (3,4)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. individual num of products &amp; sum of price </t>
+  </si>
+  <si>
+    <t>supplier name , product name &amp;  sumOf Price</t>
+  </si>
+  <si>
+    <t>select s.SupplierName, p.ProductName, sum(p.Price) as sum</t>
+  </si>
+  <si>
+    <t>from Product p</t>
+  </si>
+  <si>
+    <t>inner join Suppliers s</t>
+  </si>
+  <si>
+    <t>on p.SupplierId=s.SupplierID</t>
+  </si>
+  <si>
+    <t>group by p.ProductName, s.SupplierName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Employee table </t>
+  </si>
+  <si>
+    <t>Employee_Name Employee_ID DOJ(01-Jan-2020)</t>
+  </si>
+  <si>
+    <t>Select Employee_Name , DATEDIFF(day, GetDate(), doj) as DateDiff from Employees;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. confirm the array is fibonacci or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. longest palindrome substring </t>
+  </si>
+  <si>
+    <t>3. questions on resume, every word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Challenges faced in automation till now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Solutions identified &amp; your contribution in framework </t>
+  </si>
+  <si>
+    <t>6. Assume you have a new UI application, what all you will do for UI Automation from scratch framework development</t>
+  </si>
+  <si>
+    <t>Rivigo - Round 1</t>
+  </si>
+  <si>
+    <t>Enumerate test case for gmail inbox (+ve,-ve,edge)</t>
+  </si>
+  <si>
+    <t>Program to reverse the string</t>
+  </si>
+  <si>
+    <t>Why main method in java is static?</t>
+  </si>
+  <si>
+    <t>Can main method be overloaded?</t>
+  </si>
+  <si>
+    <t>What is String[] args in main method?</t>
+  </si>
+  <si>
+    <t>Difference between Abstract and Interface</t>
+  </si>
+  <si>
+    <t>Difference between final, finally and finalize</t>
+  </si>
+  <si>
+    <t>Where did you use finally in your framework?</t>
+  </si>
+  <si>
+    <t>TestVagrant - Round 1</t>
+  </si>
+  <si>
+    <t>1) Tell about yourself</t>
+  </si>
+  <si>
+    <t>2) Roles and Responsibilities</t>
+  </si>
+  <si>
+    <t>3) Explain module you're working in your project (technically)</t>
+  </si>
+  <si>
+    <t>4) TC Enumeration:</t>
+  </si>
+  <si>
+    <t>Swiggy is introducing contactless delivery for food and delivering medicines or groceries features in COVID period. Features to be rolled out in 30 days and contactless food delivery to go to production in 15 days and other in next 15 days.</t>
+  </si>
+  <si>
+    <t>Let us consider features to be available only for Android app.</t>
+  </si>
+  <si>
+    <t>In App, a contactless delivery check box is introduced and user can select the check box in order review page. In payment page, COD option is disabled.</t>
+  </si>
+  <si>
+    <t>In delivery side, if contactless delivery option is selected by customer, delivery person should place the food in customer selected place -&gt; take photo (he can't select photo from gallery) -&gt; System embross date and time in the photo -&gt; Upload the photo -&gt; send photo to customer says delivered.</t>
+  </si>
+  <si>
+    <t>Expectation: API test cases with integration and how to test it</t>
+  </si>
+  <si>
+    <t>backward validation -&gt; rollback to previous version and check whether existing functionality is working as expected.</t>
+  </si>
+  <si>
+    <t>5) Debugging:</t>
+  </si>
+  <si>
+    <t>There was a production issue -&gt; how will you debug it (expectation -&gt; need production mock data to debug it efficiently)</t>
+  </si>
+  <si>
+    <t>6) How will you validate payment in SIT (using emulators)</t>
+  </si>
+  <si>
+    <t>Fivetran - Round 1</t>
+  </si>
+  <si>
+    <t>2) Explain your framework</t>
+  </si>
+  <si>
+    <t>3) Explain module you're working in</t>
+  </si>
+  <si>
+    <t>4) Write program to sort the array b based on position of the elements in array a</t>
+  </si>
+  <si>
+    <t>int []a = {43,8,12,98,178,1,7,12,76,34}</t>
+  </si>
+  <si>
+    <t>int []b = {34,12,8,1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B is always a subset of A </t>
+  </si>
+  <si>
+    <t>Result: {8,12,1,34}</t>
+  </si>
+  <si>
+    <t>5) Write code to generate pascal triangle</t>
+  </si>
+  <si>
+    <t>6) Explain Hakerrank solution (problem solved in online test)</t>
+  </si>
+  <si>
+    <t>7) How will you debug intermittent issue?</t>
+  </si>
+  <si>
+    <t>8) How will you validate data entered in UI is stored in DB as expected or not?</t>
+  </si>
+  <si>
+    <t>9) Say your project migrating from Oracle to Hive, how will you validate the migration?</t>
+  </si>
+  <si>
+    <t>1) Tell me about yourself</t>
+  </si>
+  <si>
+    <t>2) How you rate yourself in Java</t>
+  </si>
+  <si>
+    <t>3) Diff b/w abstract and interface</t>
+  </si>
+  <si>
+    <t>4) What is polymorphism? where it is used in selenium?</t>
+  </si>
+  <si>
+    <t>5) WebDriver dr=new ChromeDriver(); ChromeDriver dr=new ChromeDriver() -&gt; Difference for these</t>
+  </si>
+  <si>
+    <t>6) What is inheritence</t>
+  </si>
+  <si>
+    <t>7) Why interface? (to overcome multiple inheritence in Java)</t>
+  </si>
+  <si>
+    <t>8) Difference between static and final</t>
+  </si>
+  <si>
+    <t>9) Can method be final?</t>
+  </si>
+  <si>
+    <t>10) Can you access static method using object?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) </t>
+  </si>
+  <si>
+    <t>class A{</t>
+  </si>
+  <si>
+    <t>A(){</t>
+  </si>
+  <si>
+    <t>sysout("Default");</t>
+  </si>
+  <si>
+    <t>A(int a,int b){</t>
+  </si>
+  <si>
+    <t>sysout("Parameterized");</t>
+  </si>
+  <si>
+    <t>class B extends A{</t>
+  </si>
+  <si>
+    <t>main(){</t>
+  </si>
+  <si>
+    <t>B ob=new B();</t>
+  </si>
+  <si>
+    <t>//Will parent class constructor be called?</t>
+  </si>
+  <si>
+    <t>12) Write a program to print char occurrence in the given string</t>
+  </si>
+  <si>
+    <t>google -&gt; g-2,o-2,l-1,e-1</t>
+  </si>
+  <si>
+    <t>13) 3 sibling div tags, xpath currently at div2, can "preceding" access div1 child tags?</t>
+  </si>
+  <si>
+    <t>Gemini Solutions - Round 1</t>
+  </si>
+  <si>
+    <t>//if there is a constructor, can super keyword be anywhere in the constructor (super should always be the first line in the constructor)</t>
+  </si>
+  <si>
+    <t>14) What is the mistake in the below code?</t>
+  </si>
+  <si>
+    <t>static int a=10;</t>
+  </si>
+  <si>
+    <t>void demo()</t>
+  </si>
+  <si>
+    <t>a=b;</t>
+  </si>
+  <si>
+    <t>SYSO("a is "+a);</t>
+  </si>
+  <si>
+    <t>int b=10;</t>
+  </si>
+  <si>
+    <t>15) Why MongoDB is used instead of Oracle in your project?</t>
+  </si>
+  <si>
+    <t>OLX - Round 1</t>
+  </si>
+  <si>
+    <t>Tell me about yourself</t>
+  </si>
+  <si>
+    <t>Explain framework</t>
+  </si>
+  <si>
+    <t>OOPS used in your framework</t>
+  </si>
+  <si>
+    <t>Diff between abstract and interface</t>
+  </si>
+  <si>
+    <t>How will you give your own definition for a method in interface</t>
+  </si>
+  <si>
+    <t>Diff between Array and Array List</t>
+  </si>
+  <si>
+    <t>Diff between Default and protected</t>
+  </si>
+  <si>
+    <t>Diff between Overloading and Overriding</t>
+  </si>
+  <si>
+    <t>Why interface?</t>
+  </si>
+  <si>
+    <t>What is constructor?</t>
+  </si>
+  <si>
+    <t>Can constructor have return type?</t>
+  </si>
+  <si>
+    <t>What is new keyword when creating object?</t>
+  </si>
+  <si>
+    <t>Difference between Webdriver dr=new ChromeDriver() and ChromeDriver dr=new ChromeDriver()</t>
+  </si>
+  <si>
+    <t>Why Webdriver is an interface?</t>
+  </si>
+  <si>
+    <t>Code snippet to take screenshot in selenium</t>
+  </si>
+  <si>
+    <t>Types of alert</t>
+  </si>
+  <si>
+    <t>How will you handle window based alert</t>
+  </si>
+  <si>
+    <t>How will you handle application alert</t>
+  </si>
+  <si>
+    <t>How will you switch window</t>
+  </si>
+  <si>
+    <t>Diff between implicit and explicit wait</t>
+  </si>
+  <si>
+    <t>Diff between find element and find elements</t>
+  </si>
+  <si>
+    <t>Locators? which is preferred? why?</t>
+  </si>
+  <si>
+    <t>Types of xpath?</t>
+  </si>
+  <si>
+    <t>Diff between relative and absolute xpath</t>
+  </si>
+  <si>
+    <t>How to get locator for dynamic element?</t>
+  </si>
+  <si>
+    <t>What is Retest?</t>
+  </si>
+  <si>
+    <t>What is Regression?</t>
+  </si>
+  <si>
+    <t>What is bug cycle?</t>
+  </si>
+  <si>
+    <t>What is high priority and low severity? explain?</t>
+  </si>
+  <si>
+    <t>When will you perform smoke testing?</t>
+  </si>
+  <si>
+    <t>Code to reverse a string</t>
+  </si>
+  <si>
+    <t>4) Diff b/w overloading and overriding</t>
+  </si>
+  <si>
+    <t>5) What is synchronization in Java?</t>
+  </si>
+  <si>
+    <t>6) Can we run parallel in selenium?</t>
+  </si>
+  <si>
+    <t>7) What is multiple inheritance?</t>
+  </si>
+  <si>
+    <t>8) Can method overloaded with different return type?</t>
+  </si>
+  <si>
+    <t>9) How will you validate previous build API response with current release API response?</t>
+  </si>
+  <si>
+    <t>10) Can interface extends interface?</t>
+  </si>
+  <si>
+    <t>11) Can object be created for abstract class?</t>
+  </si>
+  <si>
+    <t>12) You have 10 boxes of balls (each ball weighing exactly10 gm) with one box with defective balls (each one of the defective balls weigh 9 gm). You are given an electronic weighing machine and only one chance at it. How will find out which box has the defective balls?</t>
+  </si>
+  <si>
+    <t>Answer: Take n balls from nth box and weigh it all in the machine. Find the difference with the expected and confirm the box with defective balls.</t>
+  </si>
+  <si>
+    <t>10 boxes -&gt; 55 balls for sampling -&gt; 550 grams -&gt; if actual weight is 545 grams, then defective box is 5th box</t>
+  </si>
+  <si>
+    <t>13) Given the tables,</t>
+  </si>
+  <si>
+    <t>Employee Table: Eid, Ename, EmpSalary, DepartmentId, AddressId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Table: AddresId, State, City, Pincode </t>
+  </si>
+  <si>
+    <t>Deparment Table: DepartmentId, DepartmentName</t>
+  </si>
+  <si>
+    <t>a) Write sql query to return employee name,departmentname,city for the employee having max salary for each department</t>
+  </si>
+  <si>
+    <t>with temp as</t>
+  </si>
+  <si>
+    <t>(select employee.eid,employee.ename,employee.empsalary,employee.departmentid,address.city from employee,address where employee.addressid=address.addressid)</t>
+  </si>
+  <si>
+    <t>select temp.eid,temp.ename,temp.city,department.departmentname,max(temp.empsalary) from temp,department</t>
+  </si>
+  <si>
+    <t>where temp.departmentid=department.departmentid</t>
+  </si>
+  <si>
+    <t>group by department.departmentname</t>
+  </si>
+  <si>
+    <t>b) Write sql query to return the 3rd max salary in the employee table</t>
+  </si>
+  <si>
+    <t>(select employee.eid,employee.ename,dense_rank() over (order by employee.empsalary desc) as rnk from employee)</t>
+  </si>
+  <si>
+    <t>select * from temp where temp.rnk=3</t>
+  </si>
+  <si>
+    <t>14) Write a simple restassured code to validate a GET request</t>
+  </si>
+  <si>
+    <t>1) Given an unsorted array of positive and negative integers. Return 3 elements from the array whose product is maximum.</t>
+  </si>
+  <si>
+    <t>2) Given a sorted integer array, Return 3 elements whose sum is matching target k</t>
+  </si>
+  <si>
+    <t>3) Given a list of integers, find the kth largest element (without sorting -&gt; using priority queue)</t>
+  </si>
+  <si>
+    <t>Gartner - Round 1</t>
+  </si>
+  <si>
+    <t>Diff b/w WebDriver dr=new ChromeDriver() and ChromeDriver dr=new ChromeDriver();</t>
+  </si>
+  <si>
+    <t>Diff b/w get and navigate</t>
+  </si>
+  <si>
+    <t>Diff b/w implicit and explicit wait</t>
+  </si>
+  <si>
+    <t>What if fluent wait</t>
+  </si>
+  <si>
+    <t>What is hard and soft assert</t>
+  </si>
+  <si>
+    <t>Diff b/w assert and verify</t>
+  </si>
+  <si>
+    <t>Code snippet for screenshot</t>
+  </si>
+  <si>
+    <t>How to take full page snap</t>
+  </si>
+  <si>
+    <t>When will you take a snap</t>
+  </si>
+  <si>
+    <t>Diff b/w getWindowHandle and getWindowHandles</t>
+  </si>
+  <si>
+    <t>Diff b/w maxSession and maxInstance</t>
+  </si>
+  <si>
+    <t>Types of locators and what is efficient</t>
+  </si>
+  <si>
+    <t>Types of exceptions</t>
+  </si>
+  <si>
+    <t>What is POM?</t>
+  </si>
+  <si>
+    <t>Diff b/w smoke and sanity</t>
+  </si>
+  <si>
+    <t>Diff b/w exploratory and regression</t>
+  </si>
+  <si>
+    <t>Explain you jenkin pipeling</t>
+  </si>
+  <si>
+    <t>Tools used for test management</t>
+  </si>
+  <si>
+    <t>Explain folder structure in test management tool</t>
+  </si>
+  <si>
+    <t>How will you reflect automation cases status in testRail</t>
+  </si>
+  <si>
+    <t>Roles and responsibilities</t>
+  </si>
+  <si>
+    <t>What is RTM?</t>
+  </si>
+  <si>
+    <t>How will you estimate a story?</t>
+  </si>
+  <si>
+    <t>Current project process</t>
+  </si>
+  <si>
+    <t>Diff b/w regression and integration</t>
+  </si>
+  <si>
+    <t>TC enum for date picker</t>
+  </si>
+  <si>
+    <t>What is BVA</t>
+  </si>
+  <si>
+    <t>Explain you framework</t>
+  </si>
+  <si>
+    <t>What is POM</t>
+  </si>
+  <si>
+    <t>What is method overloading?</t>
+  </si>
+  <si>
+    <t>What is abstraction?</t>
+  </si>
+  <si>
+    <t>1) Write a program to reverse numbers in the string</t>
+  </si>
+  <si>
+    <t>i/p: a1b2c34d o/p: a43b2c1d</t>
+  </si>
+  <si>
+    <t>2) Write a program to find factorial of the number</t>
+  </si>
+  <si>
+    <t>3) Write a program to return the substring until the first occurrence of 'i'</t>
+  </si>
+  <si>
+    <t>i/p: testing o/p: test</t>
+  </si>
+  <si>
+    <t>4) Write a program to return the duplicate characters in the string</t>
+  </si>
+  <si>
+    <t>i/p: testing o/p: t-2</t>
+  </si>
+  <si>
+    <t>5) what is the expected output?</t>
+  </si>
+  <si>
+    <t>String s1 = new String("test");</t>
+  </si>
+  <si>
+    <t>String s2 = new String("TEST");</t>
+  </si>
+  <si>
+    <t>System.out.println(s1 = s2);</t>
+  </si>
+  <si>
+    <t>6) Write a program to load a url?</t>
+  </si>
+  <si>
+    <t>7) Different ways to load the url</t>
+  </si>
+  <si>
+    <t>8) Diff b/w WebDriver dr=new ChromeDriver() and ChromeDriver dr=new ChromeDriver()</t>
+  </si>
+  <si>
+    <t>9) There is a dynamic table -&gt; select alternate check boxes in the table</t>
+  </si>
+  <si>
+    <t>Roles and Responsibility</t>
+  </si>
+  <si>
+    <t>Enumerate TC for Amazon login. Some missed functionalities like,</t>
+  </si>
+  <si>
+    <t>* Different phone number but same email while registering</t>
+  </si>
+  <si>
+    <t>* Login with same username but different case</t>
+  </si>
+  <si>
+    <t>How will you validate production functionality? say you need to buy a product from Amazon?</t>
+  </si>
+  <si>
+    <t>Say there is a bug in Amazon, where home address is selected but shows work address in order confirmation page. How will you confirm whether it is a UI or API bug?</t>
+  </si>
+  <si>
+    <t>How will you validate login functionality (register user) in prod daily?</t>
+  </si>
+  <si>
+    <t>Diff b/w explicit and fluent wait</t>
+  </si>
+  <si>
+    <t>How will you handle alert in frame work</t>
+  </si>
+  <si>
+    <t>Types of collections with real time example</t>
+  </si>
+  <si>
+    <t>There is a dynamic table. How will you iterate through each cell in the table?</t>
+  </si>
+  <si>
+    <t>What is listeners</t>
+  </si>
+  <si>
+    <t>Move an element from one frame to another</t>
+  </si>
+  <si>
+    <t>There is a drop down. How will you select values in the dropdown and how to get all options in the drop down</t>
+  </si>
+  <si>
+    <t>How will you verify whether an image in UI is broken or not</t>
+  </si>
+  <si>
+    <t>Given a list, group the elements if the current element is less than the next element</t>
+  </si>
+  <si>
+    <t>[1,2,5,3,5,6,8,4,6]</t>
+  </si>
+  <si>
+    <t>[[1,2,5],[3,5,6,8],[4,6]]</t>
+  </si>
+  <si>
+    <t>Write a code of inheritance</t>
+  </si>
+  <si>
+    <t>Difference between Docker and VM</t>
+  </si>
+  <si>
+    <t>Feature planning to deployment</t>
   </si>
 </sst>
 </file>
@@ -3357,7 +4049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3372,6 +4064,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3688,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FB7748-6424-4BA7-AE80-F8081533A1F5}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -5658,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
   <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6395,6 +7093,9 @@
       <c r="B52" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="C52" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>974</v>
       </c>
@@ -6404,6 +7105,9 @@
         <v>228</v>
       </c>
       <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>989</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>975</v>
       </c>
@@ -6415,6 +7119,9 @@
       <c r="B54" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>990</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>976</v>
       </c>
@@ -6423,6 +7130,9 @@
       <c r="B55" s="1" t="s">
         <v>960</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>991</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>977</v>
       </c>
@@ -6434,6 +7144,9 @@
       <c r="B56" s="5" t="s">
         <v>961</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>992</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>978</v>
       </c>
@@ -6445,6 +7158,9 @@
       <c r="B57" s="1" t="s">
         <v>962</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>993</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>979</v>
       </c>
@@ -6453,6 +7169,9 @@
       <c r="A58" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>994</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>980</v>
       </c>
@@ -6461,6 +7180,9 @@
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -6469,6 +7191,9 @@
       <c r="B60" s="5" t="s">
         <v>998</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>1311</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>989</v>
       </c>
@@ -6480,6 +7205,9 @@
       <c r="B61" s="1" t="s">
         <v>999</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>1312</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>990</v>
       </c>
@@ -6502,6 +7230,9 @@
       <c r="B63" s="1" t="s">
         <v>1001</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>992</v>
       </c>
@@ -6512,6 +7243,9 @@
       </c>
       <c r="B64" s="1" t="s">
         <v>1002</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>993</v>
@@ -7538,6 +8272,990 @@
     <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277AEA5E-1693-4D23-AD99-E47AA3101B00}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="62.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75766EEF-6565-49DC-B14E-160310B644C5}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="42.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D57" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>1310</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -8,34 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9EFCBF-2C7C-4C5C-908D-E625244CDB0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275120C2-5867-43FB-A650-B570B967B23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
     <sheet name="FreshWorks" sheetId="1" r:id="rId2"/>
-    <sheet name="ThoughtWorks" sheetId="19" r:id="rId3"/>
-    <sheet name="ChargeBee" sheetId="5" r:id="rId4"/>
-    <sheet name="Dunzo" sheetId="10" r:id="rId5"/>
-    <sheet name="FreeCharge" sheetId="8" r:id="rId6"/>
-    <sheet name="MakeMyTrip" sheetId="20" r:id="rId7"/>
-    <sheet name="Phonepe" sheetId="21" r:id="rId8"/>
-    <sheet name="Swiggy" sheetId="15" r:id="rId9"/>
-    <sheet name="CaratLane" sheetId="13" r:id="rId10"/>
-    <sheet name="Toyota" sheetId="14" r:id="rId11"/>
-    <sheet name="Aut Anywhere" sheetId="17" r:id="rId12"/>
-    <sheet name="Zoho" sheetId="7" r:id="rId13"/>
-    <sheet name="Logitech" sheetId="6" r:id="rId14"/>
-    <sheet name="Global Logic" sheetId="9" r:id="rId15"/>
-    <sheet name="CITI" sheetId="2" r:id="rId16"/>
-    <sheet name="Global English" sheetId="3" r:id="rId17"/>
-    <sheet name="Wipro" sheetId="4" r:id="rId18"/>
-    <sheet name="Logica Infotech" sheetId="12" r:id="rId19"/>
-    <sheet name="DeepIntent" sheetId="11" r:id="rId20"/>
-    <sheet name="Gainsight" sheetId="18" r:id="rId21"/>
-    <sheet name="Optum" sheetId="22" r:id="rId22"/>
-    <sheet name="Others" sheetId="23" r:id="rId23"/>
+    <sheet name="Ally" sheetId="25" r:id="rId3"/>
+    <sheet name="ThoughtWorks" sheetId="19" r:id="rId4"/>
+    <sheet name="ChargeBee" sheetId="5" r:id="rId5"/>
+    <sheet name="Dunzo" sheetId="10" r:id="rId6"/>
+    <sheet name="FreeCharge" sheetId="8" r:id="rId7"/>
+    <sheet name="MakeMyTrip" sheetId="20" r:id="rId8"/>
+    <sheet name="Phonepe" sheetId="21" r:id="rId9"/>
+    <sheet name="Swiggy" sheetId="15" r:id="rId10"/>
+    <sheet name="CaratLane" sheetId="13" r:id="rId11"/>
+    <sheet name="Toyota" sheetId="14" r:id="rId12"/>
+    <sheet name="Aut Anywhere" sheetId="17" r:id="rId13"/>
+    <sheet name="Zoho" sheetId="7" r:id="rId14"/>
+    <sheet name="Logitech" sheetId="6" r:id="rId15"/>
+    <sheet name="Global Logic" sheetId="9" r:id="rId16"/>
+    <sheet name="CITI" sheetId="2" r:id="rId17"/>
+    <sheet name="Global English" sheetId="3" r:id="rId18"/>
+    <sheet name="Wipro" sheetId="4" r:id="rId19"/>
+    <sheet name="Logica Infotech" sheetId="12" r:id="rId20"/>
+    <sheet name="DeepIntent" sheetId="11" r:id="rId21"/>
+    <sheet name="Gainsight" sheetId="18" r:id="rId22"/>
+    <sheet name="Optum" sheetId="22" r:id="rId23"/>
+    <sheet name="Others" sheetId="23" r:id="rId24"/>
+    <sheet name="RedBus" sheetId="24" r:id="rId25"/>
+    <sheet name="Meesho" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1497">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -4007,12 +4010,569 @@
   <si>
     <t>Feature planning to deployment</t>
   </si>
+  <si>
+    <t>Find Whether the given String is Palindrome or Not</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>left = 0, right = stringLen - 1</t>
+  </si>
+  <si>
+    <t>public boolean findPalindrome(String s){</t>
+  </si>
+  <si>
+    <t>char[] arr = s.toCharArray();</t>
+  </si>
+  <si>
+    <t>int left = 0, right = s.length()-1;</t>
+  </si>
+  <si>
+    <t>while(left&lt;=right){</t>
+  </si>
+  <si>
+    <t>if(arr[left]!=arr[right]){</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>left++;</t>
+  </si>
+  <si>
+    <t>right--;</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>Find the 2nd Highest Number in a given Array</t>
+  </si>
+  <si>
+    <t>int[] arr = {8,3,5,4,9};</t>
+  </si>
+  <si>
+    <t>{5,4,3,2,1}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5}</t>
+  </si>
+  <si>
+    <t>public int secondHighest(int[] arr){</t>
+  </si>
+  <si>
+    <t>int max = Integer.MIN_VALUE;</t>
+  </si>
+  <si>
+    <t>int secMax = 0;</t>
+  </si>
+  <si>
+    <t>for(int i = 0; i &lt; arr.length; i++){</t>
+  </si>
+  <si>
+    <t>if(arr[i]&gt;max){</t>
+  </si>
+  <si>
+    <t>secMax = max;</t>
+  </si>
+  <si>
+    <t>max = arr[i];</t>
+  </si>
+  <si>
+    <t>}else if(secMax &gt; arr[i]){</t>
+  </si>
+  <si>
+    <t>secMax = arr[i];</t>
+  </si>
+  <si>
+    <t>return secMax;</t>
+  </si>
+  <si>
+    <t>Find the Alternative Charaters which are same</t>
+  </si>
+  <si>
+    <t>String s "food" - return 0,"ffff" - return f,"abcd" - return null,</t>
+  </si>
+  <si>
+    <t>aabcdd - return a,d</t>
+  </si>
+  <si>
+    <t>public Set&lt;Character&gt; findNextRepeat(String s){</t>
+  </si>
+  <si>
+    <t>Set&lt;Character&gt; set = new HashSet&lt;Character&gt;();</t>
+  </si>
+  <si>
+    <t>for(int i = 0; i &lt; s.length()-1; i++){</t>
+  </si>
+  <si>
+    <t>if(s.charAt(i)==s.charAt(i+1)){</t>
+  </si>
+  <si>
+    <t>set.add(s.charAt(i));</t>
+  </si>
+  <si>
+    <t>return set;</t>
+  </si>
+  <si>
+    <t>Write XPath to get h2</t>
+  </si>
+  <si>
+    <t>"&lt; html&gt;&lt; h1&gt;&lt; body&gt;&lt; h2&gt;"</t>
+  </si>
+  <si>
+    <t>Given a Login Page. After entering UName and Pass, press Login</t>
+  </si>
+  <si>
+    <t>You will get a OTP. Wait untill you receive OTP.</t>
+  </si>
+  <si>
+    <t>public static void main(String args[]){</t>
+  </si>
+  <si>
+    <t>Webdriver driver = new ChromeDriver();</t>
+  </si>
+  <si>
+    <t>Webelement uname = driver.findElementByXpath("");</t>
+  </si>
+  <si>
+    <t>uname.sendKeys("username");</t>
+  </si>
+  <si>
+    <t>Webelement password = driver.findElementByXpath("");</t>
+  </si>
+  <si>
+    <t>password.sendKeys("******");</t>
+  </si>
+  <si>
+    <t>Webelement login = driver.findElementByXpath("");</t>
+  </si>
+  <si>
+    <t>login.click();</t>
+  </si>
+  <si>
+    <t>Wait wait = new FluentWait(driver).withTimeOut(30,SECONDS)</t>
+  </si>
+  <si>
+    <t>.pollingEvery(5,SECONDS)</t>
+  </si>
+  <si>
+    <t>.ignoring(NoSuchElementException.class);</t>
+  </si>
+  <si>
+    <t>Webelement otp = wait.until(ExpectedConditions.presenseOfElementLocated(By.XPath("otp"));</t>
+  </si>
+  <si>
+    <t>Table: Employee, Manager (Both Tables has Same Columns)</t>
+  </si>
+  <si>
+    <t>Columns: EmpId, Name, Role, Year, Salary</t>
+  </si>
+  <si>
+    <t>Find the Matching Occurence Between Employee Table and Manager Table</t>
+  </si>
+  <si>
+    <t>select *</t>
+  </si>
+  <si>
+    <t>from Employee A</t>
+  </si>
+  <si>
+    <t>inner join Manager B</t>
+  </si>
+  <si>
+    <t>on A.EmpId = B.EmpId</t>
+  </si>
+  <si>
+    <t>Find 2nd Max Salary:</t>
+  </si>
+  <si>
+    <t>select MAX(Salary) from Employee where Salary Not in (select MAX(Salary) from Employee)</t>
+  </si>
+  <si>
+    <t>Write a RestAssured Code to hit a POST request.</t>
+  </si>
+  <si>
+    <t>Find the Status Code and Parse the response.</t>
+  </si>
+  <si>
+    <t>RestAssured.baseURI = "requestURI";</t>
+  </si>
+  <si>
+    <t>RestAssured.authentication = RestAssured.basic("username","password");</t>
+  </si>
+  <si>
+    <t>Response response = RestAssured.given().post();</t>
+  </si>
+  <si>
+    <t>int statusCode = response.getStatusCode();</t>
+  </si>
+  <si>
+    <t>JsonPath json = response.jsonPath();</t>
+  </si>
+  <si>
+    <t>1. Reverse a String</t>
+  </si>
+  <si>
+    <t>2. Parse a JSON Response and find a whether address contains Banglore.</t>
+  </si>
+  <si>
+    <t>passengerName: "Rahul",</t>
+  </si>
+  <si>
+    <t>modeOfTravel: "Bus",</t>
+  </si>
+  <si>
+    <t>address: "Nagawara, Banglore"</t>
+  </si>
+  <si>
+    <t>RedBus Hiring Manager Questions:</t>
+  </si>
+  <si>
+    <t>Question 1:</t>
+  </si>
+  <si>
+    <t>Replace word 'in' with 'on'</t>
+  </si>
+  <si>
+    <t>Input:  Involved in Customer Interaction to identify Automatable Components</t>
+  </si>
+  <si>
+    <t>Output: Involved on Customer Interaction to identify Automatable Components</t>
+  </si>
+  <si>
+    <t>Ans:</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) throws IOException {</t>
+  </si>
+  <si>
+    <t>File file = new File("./Data/Input.txt");</t>
+  </si>
+  <si>
+    <t>BufferedReader br = new BufferedReader(new FileReader(file));</t>
+  </si>
+  <si>
+    <t>String line;</t>
+  </si>
+  <si>
+    <t>while((line=br.readLine())!=null) {</t>
+  </si>
+  <si>
+    <t>line = line.replaceAll("\\bin\\b", "on");</t>
+  </si>
+  <si>
+    <t>System.out.println(line);</t>
+  </si>
+  <si>
+    <t>br.close();</t>
+  </si>
+  <si>
+    <t>Question 2:</t>
+  </si>
+  <si>
+    <t>Assume we don't have Jenkins</t>
+  </si>
+  <si>
+    <t>We have a system where a build gets generated</t>
+  </si>
+  <si>
+    <t>We have another system where we have automation code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume any Version Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever there is a new build - automation should start on that build &amp; </t>
+  </si>
+  <si>
+    <t>should mail automation reports to X, Y, Z</t>
+  </si>
+  <si>
+    <t>How to do it?</t>
+  </si>
+  <si>
+    <t>Question 3:</t>
+  </si>
+  <si>
+    <t>Find the Largest Word in below String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input: Designed and Developed Framework for UI Automation having Page Object Model </t>
+  </si>
+  <si>
+    <t>Implementation, Data Driven and TestNG</t>
+  </si>
+  <si>
+    <t>Ans: Implementation</t>
+  </si>
+  <si>
+    <t>Question 4:</t>
+  </si>
+  <si>
+    <t>Search your name in browser.</t>
+  </si>
+  <si>
+    <t>Press ctrl + F. You will get Number of occurences.</t>
+  </si>
+  <si>
+    <t>How will you do that in Selenium?</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>explain about product and business flows</t>
+  </si>
+  <si>
+    <t>few question from the resume</t>
+  </si>
+  <si>
+    <t>Test plan for we have a feature called ' deep discount which is like sort by low-high in Flipkart, and in any product, we have deep discount we will have a tag with the name f the bank for which discount is applicable for. come up with test plans for testing this feature</t>
+  </si>
+  <si>
+    <t>if the deep discount is not applying to the valid product how will you debug this</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>about yourself</t>
+  </si>
+  <si>
+    <t>Roles and responsibilities(in details)</t>
+  </si>
+  <si>
+    <t>had been into release management</t>
+  </si>
+  <si>
+    <t>explain about the product and 1 full sprint(to get how team works and our activities)</t>
+  </si>
+  <si>
+    <t>test plannig for our project</t>
+  </si>
+  <si>
+    <t>Types of mobile apps(native and hybrid)</t>
+  </si>
+  <si>
+    <t>what type of below mobile apps are</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Debugging:</t>
+  </si>
+  <si>
+    <t>1)We have a delivery app(e.g. swiggy), we made an order in mobile app , but that is not showing up on the desktop version, how will we debug this</t>
+  </si>
+  <si>
+    <t>2)Login functionality is not working(upon clicking login button)</t>
+  </si>
+  <si>
+    <t>Given credentials are valid</t>
+  </si>
+  <si>
+    <t>network is good</t>
+  </si>
+  <si>
+    <t>Expected answer: Api</t>
+  </si>
+  <si>
+    <t>3) merchant have a calculator app which will calculate the amouunt to pay, and will have bluetooth connnectivity which will sycn with customer's mobile and customer can pay with using the app by clicking on 'Pay' or 'Decline' options(payment mode as only with wallet)</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Exactly this text: "father of OKRs"</t>
+  </si>
+  <si>
+    <t>OKR, Andrew Groove</t>
+  </si>
+  <si>
+    <t>Exactly this text: "father of OKRs"
+Not these words: OGSM</t>
+  </si>
+  <si>
+    <t>Andrew Groove</t>
+  </si>
+  <si>
+    <t>Exactly this text: "father of OKRs"
+One of these words: Hoshin</t>
+  </si>
+  <si>
+    <t>OKR</t>
+  </si>
+  <si>
+    <t>These words: starwars
+Exactly this text: "may the force be with you"
+Not these words: luke</t>
+  </si>
+  <si>
+    <t>Carrie Fisher</t>
+  </si>
+  <si>
+    <t>Exactly this text: "may the force be with you"
+Page title contains: rebel</t>
+  </si>
+  <si>
+    <t>List of Star Wars characters, List of Star Wars Rebels characters</t>
+  </si>
+  <si>
+    <t>2) Roles and Responsibility</t>
+  </si>
+  <si>
+    <t>3) Tools exposure</t>
+  </si>
+  <si>
+    <t>4) What enhancements you did to your framework</t>
+  </si>
+  <si>
+    <t>5) Enumerate case for https://developers.facebook.com/docs/pages/searching/ -&gt; this API</t>
+  </si>
+  <si>
+    <t>6) Given a set of characters, check whether a palindrom can be made or not. i/p -&gt; [m, m, a,a, d] -&gt; o/p -&gt; yes (since madam can be made)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/w/index.php?search=&amp;title=Special%3ASearch&amp;profile=advanced&amp;fulltext=1&amp;advancedSearch-current=%7B%7D&amp;ns0=1</t>
+  </si>
+  <si>
+    <t>2) Write POM script for below functionality</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>How will you handle a situation when you have goofed up big time, but the root cause/person behind the cause is unknown to the management?</t>
+  </si>
+  <si>
+    <t>What is more important – how others value you or how you value yourself?</t>
+  </si>
+  <si>
+    <t>Have you ever made a product or a test case finding sound better than it is, to market it?</t>
+  </si>
+  <si>
+    <t>What motivates you to come to the office each day? What are the activities that make you lose track of time?</t>
+  </si>
+  <si>
+    <t>What according to you was a breakthrough idea which you excelled/failed to sell to your manager? Why was it accepted/rejected and how did you feel about it?</t>
+  </si>
+  <si>
+    <t>You are about to deliver a project when you realize you have analyzed the wrong data and hence, produced faulty statistics. What would you do considering there is half the time left to do double work?</t>
+  </si>
+  <si>
+    <t>How do you set your goals? Describe your action plan to achieve them and your strategy when failing to do so.</t>
+  </si>
+  <si>
+    <t>Sum of given digit. 7852 -&gt; 22 -&gt; 4 (solve it in single loop)</t>
+  </si>
+  <si>
+    <t>Check whether the given string is palindrome or not. "madam" -&gt; true</t>
+  </si>
+  <si>
+    <t>Enumerate test case for below travel site,</t>
+  </si>
+  <si>
+    <t>Start location -&gt; To location -&gt; date picker -&gt; submit button -&gt; results</t>
+  </si>
+  <si>
+    <t>How will you test a dashboard which will have graphs or chart for travel site</t>
+  </si>
+  <si>
+    <t>Diff b/w / and // in xpath</t>
+  </si>
+  <si>
+    <t>What is REST API</t>
+  </si>
+  <si>
+    <t>Roles and Responsibilties</t>
+  </si>
+  <si>
+    <t>How you'll test in manual</t>
+  </si>
+  <si>
+    <t>How will you prioritize test cases to be automated</t>
+  </si>
+  <si>
+    <t>How will you say your framework is effective</t>
+  </si>
+  <si>
+    <t>What is the design used in your framework</t>
+  </si>
+  <si>
+    <t>1. Tools that you have used for API automation</t>
+  </si>
+  <si>
+    <t>2. Why to go for rest assured?</t>
+  </si>
+  <si>
+    <t>3. Explain about API framework</t>
+  </si>
+  <si>
+    <t>4. Reporting used for API framework</t>
+  </si>
+  <si>
+    <t>5. Write tests using restassured (reqres.in) for get and post</t>
+  </si>
+  <si>
+    <t>6. Write above tests using reusable functions (@beforemethod for reusable and @Test for actual test)</t>
+  </si>
+  <si>
+    <t>7. Use dataprovider and pass input to post request</t>
+  </si>
+  <si>
+    <t>8. Include assertions in above test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. run the tests using testng.xml from eclipse, from command line as testng xml and also from maven command line (include testng.xml in build goal and run from command line) </t>
+  </si>
+  <si>
+    <t>10. How do we debug different api error codes (eg. how to debug 500 error code)</t>
+  </si>
+  <si>
+    <t>11. How to deploy a java application in command line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. different AWS services </t>
+  </si>
+  <si>
+    <t>13. How to debug memory and Capacity issues</t>
+  </si>
+  <si>
+    <t>Where from?</t>
+  </si>
+  <si>
+    <t>Why left Cognizant or leaving current company?</t>
+  </si>
+  <si>
+    <t>Why ally?</t>
+  </si>
+  <si>
+    <t>What does ally do?</t>
+  </si>
+  <si>
+    <t>What is the biggest mistake you did in your life?</t>
+  </si>
+  <si>
+    <t>What is your future goal?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4028,16 +4588,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4045,11 +4631,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4069,6 +4670,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4552,6 +5163,349 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DB3B-9D0D-4526-B1CF-6EF0A840E8A6}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EED80-F386-4D8D-8E22-BBDE76B2048C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -4727,7 +5681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD1F9D0-1F41-4D46-A88C-38D4B372000A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -4903,7 +5857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F27406-B35D-4E7F-BF58-232C7DFAD1A3}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -5038,7 +5992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CC4AA9-F201-4CF9-8C84-A706D3A63D28}">
   <dimension ref="A1:A55"/>
   <sheetViews>
@@ -5271,7 +6225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2778574C-63CC-463D-A68D-E4F793A5F3C8}">
   <dimension ref="A1:A56"/>
   <sheetViews>
@@ -5543,7 +6497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7D59E-A1D8-4245-B8E3-CFBBD78B80F5}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5646,7 +6600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9D4652-F80D-4003-93B0-0F8769751DA2}">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -5847,7 +6801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063943D-3BF7-4005-9BA4-776A95F07167}">
   <dimension ref="A2:A23"/>
   <sheetViews>
@@ -5968,7 +6922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31098C9C-93FE-485F-9190-A0148D218930}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -6286,77 +7240,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C33F1-A1FB-4B2B-8414-A0665D70F3A5}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="55.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70811466-9302-4B61-86B7-B701B3741742}">
   <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+    <sheetView topLeftCell="B49" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -8137,6 +9025,72 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C33F1-A1FB-4B2B-8414-A0665D70F3A5}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BA8A9-7826-4D89-BEBA-4976E18552D1}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -8190,7 +9144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CEDD9D-03AE-426B-A47D-1BC31D89A7C9}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -8280,7 +9234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277AEA5E-1693-4D23-AD99-E47AA3101B00}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -8470,7 +9424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75766EEF-6565-49DC-B14E-160310B644C5}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -9264,7 +10218,919 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5309C71-1A6A-4F8F-B38E-F8FF3A43BDC0}">
+  <dimension ref="A1:L110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7712651-353F-4F0A-8D24-BA2EA1B22FF3}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB6F42A-1102-41C7-8CFD-DB1D07A18272}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD3467-2B99-44E2-94DD-B35AB2451446}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -9390,7 +11256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F02FB25-3DFF-41E7-92B5-834D40ACAD7B}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -10079,7 +11945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A1B05-956D-4043-80BD-1DED8F2F6975}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -10329,7 +12195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB85AB0-402B-4E08-B2B3-647BD366FFAA}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -10686,7 +12552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA126997-88C6-42B8-AA54-B9F61EAF6019}">
   <dimension ref="A1:B45"/>
   <sheetViews>
@@ -10974,413 +12840,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE95AB5-C1FC-491D-8B54-702A2219AAD8}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DB3B-9D0D-4526-B1CF-6EF0A840E8A6}">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="71.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>173</v>
+      <c r="B1" s="2" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>585</v>
+      <c r="A2" t="s">
+        <v>1073</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>694</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>586</v>
+      <c r="A3" t="s">
+        <v>1074</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>596</v>
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1075</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>597</v>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>697</v>
+      <c r="A6" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>698</v>
+      <c r="A7" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>699</v>
+      <c r="A8" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>700</v>
+      <c r="A9" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>703</v>
+      <c r="A10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>704</v>
+      <c r="A13" s="2" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Interview/Interview_Questions.xlsx
+++ b/documents/Interview/Interview_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\eclipse-workspace\SDET_Training\documents\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275120C2-5867-43FB-A650-B570B967B23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFB4E9-5011-49E2-BD44-11AB764B757D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="26" xr2:uid="{9921EFF5-5251-4471-B206-9AE7DB107384}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="16" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Others" sheetId="23" r:id="rId24"/>
     <sheet name="RedBus" sheetId="24" r:id="rId25"/>
     <sheet name="Meesho" sheetId="26" r:id="rId26"/>
+    <sheet name="Quinbay" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1535">
   <si>
     <t>1) Why is the main method static in Java?</t>
   </si>
@@ -4566,6 +4567,120 @@
   </si>
   <si>
     <t>What is your future goal?</t>
+  </si>
+  <si>
+    <t>Quinbay:</t>
+  </si>
+  <si>
+    <t>1. Find mid element of Linked List</t>
+  </si>
+  <si>
+    <t>Next ques was: Assume it as linked list node</t>
+  </si>
+  <si>
+    <t>[N + N/2]</t>
+  </si>
+  <si>
+    <t>Next Ques was: Try to do in N/2</t>
+  </si>
+  <si>
+    <t>Not Possible: to reach right end you have to iterate O[N] again.</t>
+  </si>
+  <si>
+    <t>Hint Given: Keep 2 pointers only in left</t>
+  </si>
+  <si>
+    <t>Final Ans: First Pointer has to traverse N+2, second Pointer has to traverse N+1</t>
+  </si>
+  <si>
+    <t>So by the time, pointer 1 reach end, pointer 2 will reach Mid.</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. You have 2 Interfaces A and B. Both have same methods as </t>
+  </si>
+  <si>
+    <t>default void show(){</t>
+  </si>
+  <si>
+    <t>if interface C extends A and B, which show() will come in C?</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>3. Given a Log File</t>
+  </si>
+  <si>
+    <t>It will be as below</t>
+  </si>
+  <si>
+    <t>INFO:</t>
+  </si>
+  <si>
+    <t>DEBUG:</t>
+  </si>
+  <si>
+    <t>ERROR:</t>
+  </si>
+  <si>
+    <t>Read the file and find no of INFO, ERROR, DEBUG</t>
+  </si>
+  <si>
+    <t>4. Assume Q3 as an API</t>
+  </si>
+  <si>
+    <t>http://www.example.com/logs/info  - it will give info count</t>
+  </si>
+  <si>
+    <t>infoCount:"40"</t>
+  </si>
+  <si>
+    <t>http://www.example.com/logs/debug - it will give debug count</t>
+  </si>
+  <si>
+    <t>debugCount:"15"</t>
+  </si>
+  <si>
+    <t>http://www.example.com/logs/error - it will give error count</t>
+  </si>
+  <si>
+    <t>errorCount:"10"</t>
+  </si>
+  <si>
+    <t>Write Test Cases for above</t>
+  </si>
+  <si>
+    <t>What Modification you will make for the above API?</t>
+  </si>
+  <si>
+    <t>like http://www.example.com/logs/error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response will be </t>
+  </si>
+  <si>
+    <t>errorCount:"10",</t>
+  </si>
+  <si>
+    <t>Automate this scenario - Write a method which can be used to Test all above APIs</t>
+  </si>
+  <si>
+    <t>get Size and divide by 2</t>
+  </si>
+  <si>
+    <t>Iterate to last element to find count. Then iterate upto count/2</t>
+  </si>
+  <si>
+    <t>2 Pointers - Left at one end and right at other end</t>
+  </si>
+  <si>
+    <t>Dont forget to Mention FileNotFoundException as well</t>
+  </si>
+  <si>
+    <t>Say make an api to get all 3 counts together</t>
   </si>
 </sst>
 </file>
@@ -10847,11 +10962,293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB0941C-09E0-4F10-AFF4-E899B267818A}">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB6F42A-1102-41C7-8CFD-DB1D07A18272}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
